--- a/input/emissions-inventories/China/CEDS_MEIC_Emissions_2rdLevel_20160113.xlsx
+++ b/input/emissions-inventories/China/CEDS_MEIC_Emissions_2rdLevel_20160113.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26519"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17360" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26740" windowHeight="19120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SourceMapping" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="2010" sheetId="3" r:id="rId3"/>
     <sheet name="2012" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="163">
   <si>
     <t>1A1a_Electricity-public</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,10 +94,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,10 +310,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>inland waterway</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -574,10 +566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation (shipping)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1A3eii_Other-transp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -640,6 +628,9 @@
   <si>
     <t>1A4a_Commercial-institutional</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation (shipping)</t>
   </si>
 </sst>
 </file>
@@ -652,7 +643,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1300,7 +1290,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1311,7 +1301,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1324,53 +1314,53 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>68</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>69</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>70</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>73</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>74</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11"/>
@@ -1383,7 +1373,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="34"/>
     </row>
@@ -1419,10 +1409,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1460,7 +1450,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1477,18 +1467,18 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>81</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1499,287 +1489,287 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="21" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="22"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B30" s="22"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="22"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="22"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="22"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="22"/>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="22"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="22"/>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="22"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="22"/>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="28"/>
     </row>
@@ -1799,11 +1789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="A1:H62"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1815,28 +1805,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2101,7 +2091,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="35">
         <v>14864.178205490112</v>
@@ -2413,7 +2403,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B24" s="35">
         <v>4699.4722639843112</v>
@@ -2439,7 +2429,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="35">
         <v>21090.222138643265</v>
@@ -2465,7 +2455,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="35">
         <v>0</v>
@@ -2491,7 +2481,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="35">
         <v>3128301.4755350351</v>
@@ -2517,7 +2507,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="35">
         <v>10725.219799041748</v>
@@ -2543,7 +2533,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="35">
         <v>0</v>
@@ -2569,7 +2559,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="35">
         <v>0</v>
@@ -2595,7 +2585,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="35">
         <v>0</v>
@@ -2621,7 +2611,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="35">
         <v>0</v>
@@ -2647,7 +2637,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="35">
         <v>0</v>
@@ -2673,7 +2663,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="35">
         <v>0</v>
@@ -2699,7 +2689,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="35">
         <v>0</v>
@@ -2725,7 +2715,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="35">
         <v>0</v>
@@ -2751,7 +2741,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="35">
         <v>1135778.717414856</v>
@@ -2777,7 +2767,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="35">
         <v>473455.17587280273</v>
@@ -2803,7 +2793,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="35">
         <v>705146.86752319336</v>
@@ -2829,7 +2819,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="35">
         <v>173744.08340668678</v>
@@ -2855,7 +2845,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="35">
         <v>1136096.9123315811</v>
@@ -2881,7 +2871,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="35">
         <v>0</v>
@@ -2907,7 +2897,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="35">
         <v>0</v>
@@ -2933,7 +2923,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="35">
         <v>0</v>
@@ -2959,7 +2949,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="35">
         <v>0</v>
@@ -2985,7 +2975,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="35">
         <v>0</v>
@@ -3011,7 +3001,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="35">
         <v>0</v>
@@ -3037,7 +3027,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="35">
         <v>363442.28945052624</v>
@@ -3063,7 +3053,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="35">
         <v>0</v>
@@ -3089,7 +3079,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="35">
         <v>0</v>
@@ -3115,7 +3105,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="35">
         <v>0</v>
@@ -3141,7 +3131,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="35">
         <v>0</v>
@@ -3167,7 +3157,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="35">
         <v>0</v>
@@ -3193,7 +3183,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" s="35">
         <v>0</v>
@@ -3219,7 +3209,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="35">
         <v>0</v>
@@ -3245,7 +3235,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="35">
         <v>0</v>
@@ -3271,7 +3261,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="35">
         <v>0</v>
@@ -3297,7 +3287,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="35">
         <v>0</v>
@@ -3323,7 +3313,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="35">
         <v>0</v>
@@ -3349,7 +3339,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="35">
         <v>0</v>
@@ -3375,7 +3365,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="35">
         <v>0</v>
@@ -3401,7 +3391,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="37">
         <v>0</v>
@@ -3442,7 +3432,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:H62"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3454,28 +3444,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3584,7 +3574,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6" s="35">
         <v>0</v>
@@ -3714,7 +3704,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="35">
         <v>0</v>
@@ -3740,7 +3730,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="35">
         <v>16553.780483961105</v>
@@ -4052,7 +4042,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="B24" s="35">
         <v>5953.5627914177639</v>
@@ -4078,7 +4068,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" s="35">
         <v>20441.3408203125</v>
@@ -4104,7 +4094,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="35">
         <v>0</v>
@@ -4130,7 +4120,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B27" s="35">
         <v>3470380.624524951</v>
@@ -4156,7 +4146,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B28" s="35">
         <v>12167.906260967255</v>
@@ -4182,7 +4172,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="35">
         <v>0</v>
@@ -4208,7 +4198,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B30" s="35">
         <v>0</v>
@@ -4234,7 +4224,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="35">
         <v>0</v>
@@ -4260,7 +4250,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="35">
         <v>0</v>
@@ -4286,7 +4276,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="35">
         <v>0</v>
@@ -4312,7 +4302,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" s="35">
         <v>0</v>
@@ -4338,7 +4328,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="35">
         <v>0</v>
@@ -4364,7 +4354,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="35">
         <v>0</v>
@@ -4390,7 +4380,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B37" s="35">
         <v>1031760.6392240524</v>
@@ -4416,7 +4406,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B38" s="35">
         <v>465719.79824829102</v>
@@ -4442,7 +4432,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" s="35">
         <v>623754.86544799805</v>
@@ -4468,7 +4458,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="35">
         <v>240151.17755126953</v>
@@ -4494,7 +4484,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="35">
         <v>1278803.8054637909</v>
@@ -4520,7 +4510,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="35">
         <v>0</v>
@@ -4546,7 +4536,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="35">
         <v>0</v>
@@ -4572,7 +4562,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="35">
         <v>0</v>
@@ -4598,7 +4588,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B45" s="35">
         <v>0</v>
@@ -4624,7 +4614,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="35">
         <v>0</v>
@@ -4650,7 +4640,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B47" s="35">
         <v>0</v>
@@ -4676,7 +4666,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="35">
         <v>394057.23710632324</v>
@@ -4702,7 +4692,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="35">
         <v>0</v>
@@ -4728,7 +4718,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="35">
         <v>0</v>
@@ -4754,7 +4744,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="35">
         <v>0</v>
@@ -4780,7 +4770,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="35">
         <v>0</v>
@@ -4806,7 +4796,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="35">
         <v>0</v>
@@ -4832,7 +4822,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B54" s="35">
         <v>0</v>
@@ -4858,7 +4848,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="35">
         <v>0</v>
@@ -4884,7 +4874,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="35">
         <v>0</v>
@@ -4910,7 +4900,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="35">
         <v>0</v>
@@ -4936,7 +4926,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="35">
         <v>0</v>
@@ -4962,7 +4952,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="35">
         <v>0</v>
@@ -4988,7 +4978,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B60" s="35">
         <v>0</v>
@@ -5014,7 +5004,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="35">
         <v>0</v>
@@ -5040,7 +5030,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="37">
         <v>0</v>
@@ -5080,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5093,33 +5083,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="G1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="35">
         <v>6846336.4817212373</v>
@@ -5145,7 +5135,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="35">
         <v>0</v>
@@ -5171,7 +5161,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" s="35">
         <v>2395868.0089766085</v>
@@ -5223,7 +5213,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="35">
         <v>0</v>
@@ -5353,7 +5343,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="35">
         <v>0</v>
@@ -5379,7 +5369,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="35">
         <v>19780.120436668396</v>
@@ -5613,7 +5603,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" s="35">
         <v>179697.99554789349</v>
@@ -5639,7 +5629,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" s="35">
         <v>7099.9678790569305</v>
@@ -5691,7 +5681,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="19" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="B24" s="35">
         <v>7710.4487404315223</v>
@@ -5717,7 +5707,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B25" s="35">
         <v>20229.487614870071</v>
@@ -5743,7 +5733,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" s="35">
         <v>0</v>
@@ -5769,7 +5759,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="35">
         <v>3840440.1069260836</v>
@@ -5795,7 +5785,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28" s="35">
         <v>13734.683171272278</v>
@@ -5821,7 +5811,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="35">
         <v>0</v>
@@ -5847,7 +5837,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B30" s="35">
         <v>0</v>
@@ -5873,7 +5863,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B31" s="35">
         <v>0</v>
@@ -5899,7 +5889,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B32" s="35">
         <v>0</v>
@@ -5925,7 +5915,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B33" s="35">
         <v>0</v>
@@ -5951,7 +5941,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B34" s="35">
         <v>0</v>
@@ -5977,7 +5967,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="35">
         <v>0</v>
@@ -6003,7 +5993,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="35">
         <v>0</v>
@@ -6029,7 +6019,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" s="35">
         <v>949199.46863654489</v>
@@ -6055,7 +6045,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" s="35">
         <v>503614.11328125</v>
@@ -6081,7 +6071,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" s="35">
         <v>595927.81076049805</v>
@@ -6107,7 +6097,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="35">
         <v>259645.02716064453</v>
@@ -6133,7 +6123,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="35">
         <v>1130806.6731147766</v>
@@ -6159,7 +6149,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="35">
         <v>0</v>
@@ -6185,7 +6175,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="35">
         <v>0</v>
@@ -6211,7 +6201,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="35">
         <v>0</v>
@@ -6237,7 +6227,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="35">
         <v>0</v>
@@ -6263,7 +6253,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="35">
         <v>0</v>
@@ -6289,7 +6279,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B47" s="35">
         <v>0</v>
@@ -6315,7 +6305,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="35">
         <v>300908.17101287842</v>
@@ -6341,7 +6331,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="35">
         <v>0</v>
@@ -6367,7 +6357,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="35">
         <v>0</v>
@@ -6393,7 +6383,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="35">
         <v>0</v>
@@ -6419,7 +6409,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="35">
         <v>0</v>
@@ -6445,7 +6435,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="35">
         <v>0</v>
@@ -6471,7 +6461,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B54" s="35">
         <v>0</v>
@@ -6497,7 +6487,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="35">
         <v>0</v>
@@ -6523,7 +6513,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="35">
         <v>0</v>
@@ -6549,7 +6539,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="35">
         <v>0</v>
@@ -6575,7 +6565,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="35">
         <v>0</v>
@@ -6601,7 +6591,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="35">
         <v>0</v>
@@ -6627,7 +6617,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B60" s="35">
         <v>0</v>
@@ -6653,7 +6643,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="35">
         <v>0</v>
@@ -6679,7 +6669,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B62" s="37">
         <v>0</v>
